--- a/Assets/Table/enemyDefinitions.xlsx
+++ b/Assets/Table/enemyDefinitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">[enemyInfo]</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
-    <t xml:space="preserve">MoveSpeed</t>
-  </si>
-  <si>
     <t xml:space="preserve">MaxHealth</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">AttackCooldown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred Distance</t>
   </si>
   <si>
     <t xml:space="preserve">DropTable</t>
@@ -275,15 +269,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="96.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="96.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,40 +307,28 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,28 +336,22 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,28 +359,22 @@
         <v>20001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Table/enemyDefinitions.xlsx
+++ b/Assets/Table/enemyDefinitions.xlsx
@@ -49,10 +49,10 @@
     <t xml:space="preserve">Melee</t>
   </si>
   <si>
-    <t xml:space="preserve">(type:Experience;amount:10;probability:1;guaranteed:true)(type:Gold;amount:5;probability:1;guaranteed:true)(type:Health;amount:5;probability:0.1;guaranteed:false)(type:Ability;amount:1;probability:0.05;guaranteed:false)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(type:Ability;amount:1;probability:1;guaranteed:false)</t>
+    <t xml:space="preserve">(type:Experience;amount:10;probability:10000;guaranteed:true)(type:Gold;amount:5;probability:10000;guaranteed:true)(type:Health;amount:5;probability:1000;guaranteed:false)(type:Ability;amount:1;probability:500;guaranteed:false)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(type:Ability;amount:1;probability:10000;guaranteed:false)</t>
   </si>
   <si>
     <t xml:space="preserve">Ranged</t>
@@ -272,7 +272,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,16 +316,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>50</v>
+        <v>500000</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1.5</v>
+        <v>15000</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.5</v>
+        <v>5000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -339,16 +339,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>50</v>
+        <v>500000</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.5</v>
+        <v>15000</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -362,16 +362,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>50</v>
+        <v>500000</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1.5</v>
+        <v>15000</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
